--- a/file/TGE-522-HualienRestaurant.xlsx
+++ b/file/TGE-522-HualienRestaurant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EE807D-837B-484D-B356-31E279C9ABEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DB7E75-BFA3-AF4C-ADFE-34E0DE0EC971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21700" yWindow="2020" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,6 +383,41 @@
   <si>
     <t>0966 507 451</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樹屋餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壽豐鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣壽豐鄉池南村環潭南路2號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 864 1888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一～周五：11:00～14:00、17:00～20:00
+週六、日：11:00～20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壽豐鄉池南村屬於阿美族部落，樹屋用在地原民料理方式結合新鮮蔬果，做出一道道令人驚豔的料理，來到鯉魚潭，如果您錯過樹屋的餐食，那就令人扼腕了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/category/Diner/%E9%AF%89%E9%AD%9A%E6%BD%AD%E6%A8%B9%E5%B1%8B%E9%A4%90%E5%BB%B3Cikasuan-1173545155995464/</t>
+  </si>
+  <si>
+    <t>fig/TGE-5202-HualienRestaurant-11.jpg</t>
   </si>
 </sst>
 </file>
@@ -440,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,6 +490,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -771,13 +809,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1145,6 +1183,38 @@
         <v>87</v>
       </c>
     </row>
+    <row r="12" spans="1:10" ht="144">
+      <c r="A12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/file/TGE-522-HualienRestaurant.xlsx
+++ b/file/TGE-522-HualienRestaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DB7E75-BFA3-AF4C-ADFE-34E0DE0EC971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F76A2C-C25F-8641-87F1-509AAF2E6BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21700" yWindow="2020" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="23760" yWindow="1980" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="136">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,10 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>樹屋餐廳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,6 +414,135 @@
   </si>
   <si>
     <t>fig/TGE-5202-HualienRestaurant-11.jpg</t>
+  </si>
+  <si>
+    <t>葛瑪蘭餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闔家歡</t>
+  </si>
+  <si>
+    <t>不捨咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>達基力風味餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太魯閣族的老闆及老闆娘，從近二十年前開始在部落裡打造自己的夢想廚房。老闆娘專攻在太魯閣族傳統美食創意料理 ；而老闆則是致力於藝術創作。也因此這裡帶著自然的藝術風格，算是在崇德這裡別具一格的用餐場所
+除了太魯閣族的風味餐(還是無菜單料理～隨時會有菜色變動) 餐廳內還有許多原創藝術雕刻藝術、檜木精油手工皂工作室、舞鎷咖啡館、編織教室及藝術展間。當然，這裡也提供原住民文化體驗活動(需事先預約)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/dageeli180.5/</t>
+  </si>
+  <si>
+    <t>03 862 1033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30 - 15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣秀林鄉崇德村96號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀林鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5202-HualienRestaurant-12.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5202-HualienRestaurant-13.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5202-HualienRestaurant-14.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5202-HualienRestaurant-15.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/113098648721660/</t>
+  </si>
+  <si>
+    <t>03 871 1339</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣豐濱鄉新社42號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-15:00丨16:30-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豐濱鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">這家海鮮餐廳幾乎是我每次走花蓮台11線的必吃，菜色與服務沒有一次讓我失望，帶不同朋友前往，更是人人讚不絕口。清蒸龍蝦必點，涼拌海菜、鹹蛋透抽、綜合時蔬、鮮魚料理，更是不點可惜。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/%E8%8A%B1%E8%93%AE%E9%97%94%E5%AE%B6%E6%AD%A1/130997417085460</t>
+  </si>
+  <si>
+    <t>花蓮市花蓮縣中和街228號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 833 4450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 14:00 、 17:00 - 20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">30年前從麵食館起家的「闔家歡」至今已是花蓮首屈一指的合菜餐廳，Google評價破千且高達4.3分相當厲害。餐廳約有30張圓桌的規模，假日還總是客滿，必須兩輪接單。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/No.11restaurant/</t>
+  </si>
+  <si>
+    <t>03 867 1169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00 - 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣壽豐鄉鹽寮村大坑５-１號(觀海樓）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位於花蓮縣壽豐鄉鹽寮村大坑5-1號(觀海樓）的11不捨海景咖啡餐廳(No.11 Café及海鮮餐廳- 餐廳)，是個適合喝咖啡、用餐、看海景的一個好地方，有著絕美好景，來到這看著海吹著風，絕對讓你好好放鬆一番！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -809,13 +934,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10:I12"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1185,34 +1310,162 @@
     </row>
     <row r="12" spans="1:10" ht="144">
       <c r="A12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="128">
+      <c r="A13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="80">
+      <c r="A14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>100</v>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="64">
+      <c r="A15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="64">
+      <c r="A16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/file/TGE-522-HualienRestaurant.xlsx
+++ b/file/TGE-522-HualienRestaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F76A2C-C25F-8641-87F1-509AAF2E6BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A2DA8D-59A5-DD48-B6B9-AB12C6A9F98C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23760" yWindow="1980" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="21900" yWindow="1980" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="144">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,6 +542,36 @@
   </si>
   <si>
     <t>位於花蓮縣壽豐鄉鹽寮村大坑5-1號(觀海樓）的11不捨海景咖啡餐廳(No.11 Café及海鮮餐廳- 餐廳)，是個適合喝咖啡、用餐、看海景的一個好地方，有著絕美好景，來到這看著海吹著風，絕對讓你好好放鬆一番！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5202-HualienRestaurant-16.jpg</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E6%9D%BE%E8%B3%80%E5%AE%B6%E6%96%99%E7%90%86-114203882021748/</t>
+  </si>
+  <si>
+    <t>03 852 8688</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00 - 21:30 (週一，週二公休）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市中美路301－3號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賀松家料理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮無菜單合菜料理松賀家，廚娘每日採買新鮮食材，不油炸、不微波、不燒烤、只燉煮，提供原味自然健康有層次的餐點、不留隔夜菜，皆是廚娘堅持的原則，所以也只能提供晚餐時段，只出一輪餐，不超收客人，美味佳餚真的值得一訪再訪。目前皆採預訂方式，四人以上可預約</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,13 +964,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1468,6 +1498,38 @@
         <v>131</v>
       </c>
     </row>
+    <row r="17" spans="1:10" ht="80">
+      <c r="A17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/file/TGE-522-HualienRestaurant.xlsx
+++ b/file/TGE-522-HualienRestaurant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A2DA8D-59A5-DD48-B6B9-AB12C6A9F98C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4A931B-D825-5D4E-8A6C-1BE5AE6257FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="1980" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="24220" yWindow="5320" windowWidth="37680" windowHeight="20800" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="173">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,10 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>03 864 1888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周一～周五：11:00～14:00、17:00～20:00
 週六、日：11:00～20:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,10 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11:30 - 15:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花蓮縣秀林鄉崇德村96號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -555,10 +547,6 @@
     <t>https://www.facebook.com/%E6%9D%BE%E8%B3%80%E5%AE%B6%E6%96%99%E7%90%86-114203882021748/</t>
   </si>
   <si>
-    <t>03 852 8688</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18:00 - 21:30 (週一，週二公休）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,12 +555,202 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>賀松家料理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花蓮無菜單合菜料理松賀家，廚娘每日採買新鮮食材，不油炸、不微波、不燒烤、只燉煮，提供原味自然健康有層次的餐點、不留隔夜菜，皆是廚娘堅持的原則，所以也只能提供晚餐時段，只出一輪餐，不超收客人，美味佳餚真的值得一訪再訪。目前皆採預訂方式，四人以上可預約</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DescriptionTF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30-14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>達基力部落屋Dajili Tribal House
+&lt;br&gt;&lt;br&gt;
+達基力風味餐廳位於花蓮縣秀林鄉，它是一間文創餐廳，也是間工作室，提供多項美味的原住民料理美食和藝術文創的體驗。相鄰近太魯閣，位置在蘇花公路旁，車程只要10分鐘，所以是不少團體和自由行的旅客用餐休息之所。除了用餐之外，還有許多原住民的活動體驗與文創藝術可以參與。我們在旅程出發前，早已預訂此間餐廳，僅排在第二輪，13:30分才能入塲。可見餐廳訂位的踴躍。
+&lt;br&gt;&lt;br&gt;
+聽說太魯閣族的老闆及老闆娘，從近二十年前開始在部落裡打造自己的夢想廚房。老闆娘專攻在太魯閣族傳統美食創意料理 ；而老闆則是致力於藝術創作。也因此這裡帶著自然的藝術風格，算是在崇德這裡別具一格的用餐場所
+&lt;br&gt;&lt;br&gt;
+「達基力」是太魯閣族語「石頭很多」的意思，店家採複合式經營。太魯閣族的風味餐(無菜單料理，隨時會有菜色變動) ，餐廳內陳列有許多原創藝術雕刻藝術、檜木精油手工皂工作室、舞鎷咖啡館、編織教室及藝術展間。還可以提前預約手工皂DIY、編織手環、搗米、竹筒飯、香蕉糕與薰雞DIY等課程。我們進入餐廳，四處顕見強力的原住民風格，甚感好奇有趣。
+&lt;br&gt;&lt;br&gt;
+餐廳服務非常迅速，我們被安排在包廂內用餐。四周環繞有很多木彫藝術品。一邊享用美食一邊觀賞藝術。原住民必吃的竹香竹筒飯，香氣十足，旁邊有提供石頭，要我們自己敲打才能吃到喔。感覺非常有趣味性。連隨餐附贈的飯都是雙色的黃色的飯裡面加入了薑黃，吃起來格外溫和特別。
+&lt;br&gt;&lt;br&gt;
+原住民料理一定要吃的鹹豬肉，吃起來皮是酥的、烤雞的外皮烤至金黃油亮，整盤端上來，立馬一掃而空。馬格力香腸厥兒三拼由涼拌海蜇皮、秋葵與馬告香腸所組成。涼拌海蜇皮微辣，氽燙過的秋葵淋上醬油帶點鹹味，馬告香腸吃起來微甜帶點淡淡不明顯的馬告味。涼拌過貓、清炒高麗菜、青椒臘肉。自家醃製的臘肉佐以花蓮產物，寒帶甜青椒，色香味俱全。他們家的烤魚很特別的是魚腹會塞入野菜及調味料，一起放進去烤之後，整隻魚都會帶有香氣，非常好吃。最後是酥炸豆腐及炸芋頭，兩者都還蠻好吃的。
+&lt;br&gt;&lt;br&gt;
+當日以每人350元套餐計價。菜色豐富，價錢合理。值得到此品嚐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">經阿姬及李宿民宿主人亞年特別強力推薦花蓮在地美食餐廳闔家歡，嘗試過上癮後成為每到花蓮必吃的美食。
+&lt;br&gt;&lt;br&gt;
+「闔家歡」30年前從麵食館起家，至今已是花蓮首屈一指的合菜餐廳，Google評價破千且高達4.3分相當厲害。台北有鼎泰豐小籠包，花蓮則有闔家歡小籠包，每到此必點的美食之一。
+&lt;br&gt;&lt;br&gt;
+ 廚師出身的老闆江志忠，每天親自買菜，被攤商形容為「花蓮採買最龜毛」的人，堅持價值高於價格；同時他也親自接單、第一手掌握客人的需求，仔細詢問每桌客人的年齡、餐敘目的等，接大陸團客時，還會細問客人來自哪一省，調整菜色及口味。 令人意外的是，江志忠甚至將所有客人的用餐資料加以建檔，三年內客人吃過什麼菜通通一清二楚，避免下次菜色重複，如此貼心難怪成為花蓮人宴客的首選。
+&lt;br&gt;&lt;br&gt;
+鎮江豬腳，這道菜看起來白白的，卻不油膩，豬皮咬下去也QQ的，顛覆一般對「豬腳」的看法。
+豬腳肉香四溢、肥而不膩，肉質Q軟、入口即化，瘦肉軟嫩不柴，不敢吃肥豬肉的人，也可嘗試。
+&lt;br&gt;&lt;br&gt;
+每次必點的招牌菜江浙名菜砂鍋芋頭鴨，選用鴨子為烤鴨的等級，鴨子夠肥，油脂豐厚才好吃，湯底用鴨骨、翅膀去熬，肉質蒸至軟嫩。芋頭則特別選用花蓮吉安鄉的檳榔芋，口感綿香、鬆軟；添加扁尖筍乾，則為湯頭提味添香。如果因人少推薦可改點另一道「芋茸香酥鴨」，吃起來香酥可口。清蒸石斑魚，很大一條魚很新鮮，闔家歡雖然不是主打海鮮的，但是他們家的海鮮類新鮮又好吃。
+&lt;br&gt;&lt;br&gt;
+「上海小籠湯包」是每桌必點的明星點心。薄皮湯包，湯汁豐沛、鮮美不膩口。碢貼金黃酥脆的底，讓人直流口水。有別於常見的鍋貼餡料，用葫瓜來搭配鮮肉，餡料調味很棒，咬下去的時候還有些湯汁。蔥油餅吃起來像是千層餅一樣，麵皮與蔥花充份混合，咬下去層次分明，每一層都是酥脆，但又不失麵餅的那種軔性，有別一般路邊攤賣的蔥油餅，現點現作，新鮮度高。豆沙鍋餅飯後甜點，縂要留有一空胃，給甜食的位置，每餐必點的點心。
+&lt;br&gt;&lt;br&gt;
+闔家歡提供各式各樣的菜色，種類繁多，
+								請看菜單（連結）自己找點選喜歡的美食吧！
+								&lt;br&gt;&lt;br&gt;
+								貼心提醒：闔家歡經常客滿座無虛席，想到闔家歡，請先訂位囉！	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 852 8688, 0926 668989</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陪同家人來到花蓮旅遊，經李宿民宿亞年特別推薦提早預約，我們在旅遊期間非常幸運的來到松賀家用餐。當天座無虛席。吃到美味的料理，感到幸福，早已忘記了旅遊行程的辛勞。特別向大家推薦松賀家值得您來品嚐的無菜單料理。
+&lt;br&gt;&lt;br&gt;
+花蓮無菜單合菜料理松賀家，劉太太廚娘每日採買新鮮食材，僅採用燉煮方式，堅持不油炸、不微波、不燒烤，來提供原味自然健康有層次的餐點。並且不留隔夜菜。皆是廚娘堅持的健康環保原則。所以也只能提供晚餐時段，只出一輪餐，不超收客人，美味佳餚真的值得一訪再訪。目前松賀家只有美崙這一間，別無分號喔！
+&lt;br&gt;&lt;br&gt;
+食材都是前一天確定好數量，當天一大早去市場購買，沒有隔夜菜、用餐時間是晚上六點開始，採電話預約制，基本人數要有四位大人以上才能預約。餐廳可容納人數大約130人左右，而且最慢一定要提前一天預約，不接受當天預定。
+&lt;br&gt;&lt;br&gt;
+當天我們吃到的是紅色火龍果拌小黃瓜，蘋果片鋪底的水果拼盤，有水果味道非常爽口，沒有一般市面上沙拉的味道。蔥油雞招牌菜，是去骨的雞腿肉，沒骨頭又不會切太大塊，好咬斷又香，入口滿是油蔥香，大家努力挾食，停不下筷子。
+什錦軟排煲，裡面有杏包菇、軟排，玉米，白菜，紅蘿蔔等等，湯汁用大骨湯熬煮很甘甜，排骨超多，清爽香甜可口好喝。新鮮大尾的小卷燉煮，可以吃到小卷的美味香甜。每隻小卷都非常豐碩大尾食材豐盛。大蝦下是用蕃茄燉煮的高麗菜，微酸中還可以吃到高麗菜的清甜。薑糖奶酪甜點是最驚豔的甜點之一。入口是黑糖的香和薑之略辣的香氣交錯，口感極為舒服，化開後糖的甜香隨之而來，底下的奶酪也好吃。好吃到居然甜點都忘記拍照了！
+&lt;br&gt;&lt;br&gt;
+「松賀家」原本位於吉安黃昏市場旁巷內的小民宅，已經搬到下美崙區囉，新餐廳靠近花蓮賞鯨碼頭、從松賀家步行就可以到附近的85度C、米噹燒烤、福容飯店、美崙濱海公園、交通便利。
+貼心叮嚀：想到松賀家用餐，須要提前預約喔！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松賀家無菜單料理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屋銤海鮮餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣壽豐鄉大橋28-1號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0930 370 455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-15:00、17:00-21:00 (週三公休)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5202-HualienRestaurant-17.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umi 屋銤海鮮，無論在景觀或是料理上都表現得不錯，是到花蓮旅遊可以來吃的鹽寮海鮮餐廳。
+沒有什麼裝潢的海邊小屋，樸實的自然風格也是它的特色之一。造訪花蓮一個靠海且海產豐饒的城市時，想找的也許不是用餐環境優雅的大餐廳，而是擁有新鮮直送生猛海產的在地私房餐廳。通常這種類型的餐廳的室內空間都內空間都樸實無華，但他所擁有新鮮最無敵的各式海鮮，加上老闆豪邁的用料及料理方式，絕對是體驗當地海鮮美食的最佳選擇。
+&lt;br&gt;&lt;br&gt;
+大家知道「U mi 」是甚麼意思嗎！？是日文海的意思，想要表達的是所提供的餐飲幾乎都是來自於大海，像是現撈的海膽及龍蝦等。餐點以海產為主，所有料理方式與價格，都一目了然寫在黑板上，結帳不會心驚膽跳。
+&lt;br&gt;&lt;br&gt;
+炸小卷推薦必點，小卷好大隻，肉質肥厚彈牙，雖然裹粉下油鍋炸過，但依然保留著其嫩度及鮮甜口感，香酥美味。烤飛魚卵香腸，烤香腸的火候掌握的恰到好處，口口都是好味道。炒野菜 ，清爽的炒青菜，
+&lt;br&gt;&lt;br&gt;
+用餐之前，大家利用空檔，搶著先在餐廳戶外的拍照裝置拍照，不亦樂乎！由於天氣晴朗，太陽高掛，碧海藍天拍照效果非常好。幾乎忘記用餐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/winnerUmi</t>
+  </si>
+  <si>
+    <t>03 864 1888, 0955-996-777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鯉魚潭是到訪花蓮必經的景點之一。多次來訪花蓮鯉魚潭，春夏秋冬四季均有不同的景象。因而再度造訪。環湖步道走完，來到樹屋餐廳。鯉魚潭附近的樹屋餐廳，是超熱門的餐廳。網路上很多人推薦，說來鯉魚潭遊玩，必吃的就是樹屋餐廳。上回來吃過印象非常好，記憶猶新再度推薦給家人，大家來吃看看吧！
+&lt;br&gt;&lt;br&gt;
+桶仔雞和炭烤魚幾乎是每桌都有點的料理，
+必須提前一小時預約，以利店家預備。碳烤活力魚採用的是吳郭魚，整個花東地區　幾乎都會使用的魚，在花蓮地區由於湧泉清澈，吳郭魚沒有臭土味，魚兒不去鱗，直接包鹽碳烤，撥開外皮　魚肉鮮美沒異味，故成為一道花東必點名菜。
+&lt;br&gt;&lt;br&gt;
+松子野味，雖然菜名有松子二字，其實沒有添加松子，乃是取其珍貴之意，料理使用山豬皮、小黃瓜、番茄、檸檬、洋蔥與香菜調味而成，
+是一道極為開胃的涼拌菜。
+&lt;br&gt;&lt;br&gt;
+清炒枸杞葉，跟薑絲、枸杞一塊炒，枸杞葉吃起來甜甜的，口感像地瓜幼嫩的葉子。過貓是蕨類野菜，不用農藥就可以長很好，拌入薑絲、芝麻入菜，十分爽口。
+&lt;br&gt;&lt;br&gt;
+咪咪飯是原住民的風味餐，最上層是酥香的芋頭，「咪咪」是阿美族「捏捏」，原本是原住民狩獵外出的捏捏飯糰，在餐廳就可以吃到。
+&lt;br&gt;&lt;br&gt;
+具濃厚原民風的樹屋除了提供美食。阿美族人還利用過多的構樹樹幹　做成樹皮秀　有燈罩　筆記等，對生態十分環保。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口福海鮮餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5202-HualienRestaurant-18.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 878 1041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣豐濱鄉石梯灣80號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-14:00、17:00-19:30</t>
+  </si>
+  <si>
+    <t>旅遊行程下午打算遊玩石梯坪，原訂在葛瑪蘭用餐，可惜該店當日休息，改到石梯港漁港餐廳吃海鮮。
+&lt;br&gt;&lt;br&gt;
+東海岸的石梯坪有湛藍的海景、豐富多樣的海產，口福海鮮餐廳就在花蓮南區最大的石梯港旁，餐廳門口水箱內看到有多種海產，龍蝦、鮑魚、蝦姑、螃蟹、各種魚類等當地新鮮海產。
+&lt;br&gt;&lt;br&gt;
+用餐地點空間環境很大，我們到達時已經接近午間十一點，仍舊是高朋滿座，客人非常多。簡單點了幾道菜，味道相當不錯。
+&lt;br&gt;&lt;br&gt;
+飯後到鄰近石梯漁港參觀。石梯漁港位於花蓮與台東的交界處石梯坪旁邊。前方可遠眺遼闊的太平洋，後方有秀麗的海岸山脈，依山傍海景色優美。特別值得推薦此處可以登上海鯨號賞鯨。海鯨號 於1997 成立，它是台灣第一艘賞鯨船。可說是賞鯨船的始祖。台灣東部海面是賞鯨豚的主要活動場域，石梯港海灣的賞鯨豚可見率高達90%，每年的4~10月是最推薦出海賞鯨豚的季節，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cetacean.com.tw</t>
+  </si>
+  <si>
+    <t>019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮香扁食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 833 6166</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一～週日 11:00-21:30(週三公休)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市中山路347-1號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5202-HualienRestaurant-19.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自從跟朋友一起來花蓮，享用了道地花蓮人的推薦之後，花蓮香扁食就是口袋名單了！此次陪同家人來到花蓮，第一站就先來這裡吃上一碗扁食滿足大家的胃口。
+&lt;br&gt;&lt;br&gt;
+餡多 真材實料。有鮮蝦、翡翠、鮮肉 三種口味 。
+鮮蝦口味強調選用當日人工現剝蝦肉結合新鮮豬肉，蝦子通透的色澤，吃起來口感新鮮，感受到鮮蝦的味道，輕薄的外皮，帶有皺褶卻又滑順。吃起就能顯見他的美妙存在不同的食材簡單調味，卻有著不簡單的風味。鮮肉口味，店家強調選用當日人工現剝蝦肉結合新鮮豬肉，口味相當不錯。翡翠扁食裏頭除了豬肉外，還有剁碎的韭菜新鮮的豬肉帶有一抹甜香與鹹度。另外還有他們家的紅油抄手，搭配店家特製辣醬，保證讓你吃得很過癮！除了扁食湯扁食麵之外，還有紅油抄手、肉燥飯、貢丸湯、各式小菜等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bian-shi.com.tw</t>
   </si>
 </sst>
 </file>
@@ -964,13 +1142,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -980,13 +1158,14 @@
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="56.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="37" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="97.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="37" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16">
+    <row r="1" spans="1:11" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,22 +1182,25 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="160">
+    <row r="2" spans="1:11" ht="160">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1034,23 +1216,23 @@
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="176">
+    <row r="3" spans="1:11" ht="176">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,23 +1248,23 @@
       <c r="E3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="192">
+    <row r="4" spans="1:11" ht="192">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1098,23 +1280,23 @@
       <c r="E4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="176">
+    <row r="5" spans="1:11" ht="176">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,23 +1312,23 @@
       <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="176">
+    <row r="6" spans="1:11" ht="176">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1162,23 +1344,23 @@
       <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="144">
+    <row r="7" spans="1:11" ht="144">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1194,23 +1376,23 @@
       <c r="E7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="176">
+    <row r="8" spans="1:11" ht="176">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,23 +1408,23 @@
       <c r="E8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="192">
+    <row r="9" spans="1:11" ht="192">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1258,23 +1440,23 @@
       <c r="E9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="160">
+    <row r="10" spans="1:11" ht="160">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1290,23 +1472,23 @@
       <c r="E10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="160">
+    <row r="11" spans="1:11" ht="160">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1322,25 +1504,25 @@
       <c r="E11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="144">
+    <row r="12" spans="1:11" ht="335">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>93</v>
@@ -1352,94 +1534,100 @@
         <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="128">
+    </row>
+    <row r="13" spans="1:11" ht="409.6">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>112</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="80">
+        <v>141</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="80">
       <c r="A14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="64">
+      <c r="J14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="409.6">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -1448,30 +1636,33 @@
         <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="64">
+      <c r="J15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="64">
       <c r="A16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -1480,30 +1671,30 @@
         <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="80">
+      <c r="J16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="380">
       <c r="A17" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -1512,28 +1703,127 @@
         <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>138</v>
+      <c r="J17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="224">
+      <c r="A18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="192">
+      <c r="A19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="144">
+      <c r="A20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J10" r:id="rId1" xr:uid="{3FD5D21B-A5E3-8145-AFF9-4ED28DB7BC99}"/>
+    <hyperlink ref="K10" r:id="rId1" xr:uid="{3FD5D21B-A5E3-8145-AFF9-4ED28DB7BC99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/file/TGE-522-HualienRestaurant.xlsx
+++ b/file/TGE-522-HualienRestaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4A931B-D825-5D4E-8A6C-1BE5AE6257FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAB1D59-486E-574B-81AD-04B05952C283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24220" yWindow="5320" windowWidth="37680" windowHeight="20800" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="4600" yWindow="12900" windowWidth="48720" windowHeight="20800" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="136">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,20 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
     <t>006</t>
   </si>
   <si>
@@ -99,15 +85,9 @@
     <t>007</t>
   </si>
   <si>
-    <t>008</t>
-  </si>
-  <si>
     <t>009</t>
   </si>
   <si>
-    <t>010</t>
-  </si>
-  <si>
     <t>花蓮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,31 +108,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fig/TGE-5202-HualienRestaurant-02.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/TGE-5202-HualienRestaurant-04.jpg</t>
-  </si>
-  <si>
-    <t>fig/TGE-5202-HualienRestaurant-05.jpg</t>
-  </si>
-  <si>
     <t>fig/TGE-5202-HualienRestaurant-06.jpg</t>
   </si>
   <si>
     <t>fig/TGE-5202-HualienRestaurant-07.jpg</t>
   </si>
   <si>
-    <t>fig/TGE-5202-HualienRestaurant-08.jpg</t>
-  </si>
-  <si>
     <t>fig/TGE-5202-HualienRestaurant-09.jpg</t>
   </si>
   <si>
-    <t>fig/TGE-5202-HualienRestaurant-10.jpg</t>
-  </si>
-  <si>
     <t>11:00-14:30，17:30-21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,29 +127,6 @@
     <t>新城鄉</t>
   </si>
   <si>
-    <t>Dos Tacos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要勇闖斷崖縱谷先來點「硬派」食物墊墊胃。DOS TACOS 隱身在花蓮市區的巷弄中，嗜辣的朋友可在這裡找到衝擊味覺的墨西哥料理，捲餅、烤餅、塔可等應有盡有，大口啜飲冰啤酒才算完美！深受客人喜愛的牛肉烤餅，厚薄適中的餅皮烙烤的乾酥，夾著炒香牛肉配上莎莎醬、酪梨醬等多種醬料，最後由墨西哥綠辣椒畫龍點睛，吃起來火爆過癮。招牌限量炸冰淇淋製作費工，裹上糖粉的香草冰淇淋冷凍 4 小時後酥炸，炸時火候要拿捏精準，還得「搶快」方能成功。炸冰淇淋甜而不膩，挖到中間時與底部的咖啡奶酒一起攪拌入口又是另一番滋味。5、4、3、2…店門的小黑板隨時倒數廚房剩下多少炸冰淇淋，要手刀前進才能搶到！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市復興街 92 號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:30–14:30,18:00–21:30 (星期一、星期二公休)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/tacosandbeeryo/</t>
-  </si>
-  <si>
-    <t>03 831 1733</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>03 823 9336</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,68 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非洲象牙海岸小廚房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非洲象牙海岸小廚房是花蓮唯一一家非洲餐廳，來自象牙海岸的老闆 Bony 忠實呈現家鄉嬤嬤的燉醬絕活兒，大量的番茄加上薑、洋蔥、青豆、紅蘿蔔等快煮 8-10 分鐘，以此蔬菜湯為基底，再搭配各種不同食材、辛香料，就能變化出風情萬種的燉醬。口味獨特的「阿啦喜醬」是客人的心頭好，簡單來說就是燉醬加花生醬，乍聽很違和，吃起來卻驚奇！花生醬為蔬菜燉醬添上濃稠的厚實口感，香香辣辣的，配上北非小米或法式麵包一起食用，飽足了胃袋。象牙海岸飲食生活離不開薑，飯後來上一杯特調檸檬薑汁或薑汁咖啡，能量滿載！這裡的沙拉很特別，是水果丁加牛奶、可可奶油，透著可可香味的奶脂緊緊巴著水果丁，有點像是椰奶西米露的加厚升級版，難以言喻的滋味，等您來品嚐。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市大同街 54 號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:30–14:30，18:00–23:00 (星期一公休)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火車頭煙燻烤肉屋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花蓮山高地闊讓人很想大口吃肉！火車頭烤肉屋主打美式煙燻料理，是花蓮人氣美式餐廳，門前巨型的火車頭不只是裝飾而已，還是台煙燻烤肉爐。美國主廚曾是肉類料理廚師，以遊歷美國中西部的所見所學，呈現各州特色燻烤料理。招牌菜是堪薩斯城豬肋排，肋排先以番茄、蒜頭醬汁醃過，烤前抹上特製香料，數小時燻烤後再淋上濃厚偏甜的堪薩斯烤肉醬，肋排外皮焦脆卻肥嫩多汁，輕輕一剝就骨肉分離，令人吮指回味。卡羅來納州手撕豬肉選用偏瘦的豬胛心肉，以 16 種香料醃漬入味，低溫煙燻後的肉堅實不柴，配上酸酸甜甜的北卡醬汁，用漢堡夾著吃很搭。老闆很風趣，除了有「淑女之夜」，每週還有「老師之夜」、「學生之夜」，只要憑證入場就能大快朵頤。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市中山路 151 號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:30–14:30，17:00–21:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/lickbbq/</t>
-  </si>
-  <si>
-    <t>03 833 2592</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>愛窯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>愛窯是一間窯烤麵包小店，來自奧地利的老闆為了想吃道地家鄉傳統麵包，特地回鄉請益師傅如何打造磚窯；食材選用很固執，麵包一定要用德國的麵粉，披薩要用義大利的麵粉；還要斤斤計較發酵時間、溫度、濕度，從揉麵到烘烤，不假他人，全程自己手工完成。旁人笑他為了喝牛奶養一頭牛，唯有這般堅持才能呈現歐洲麵包的原汁原味。15:30 是麵包出爐的時間，小小的空間香氣四溢，不像台式麵包的鬆軟，愛窯的麵包沉甸甸的，口感紮實，沒有香精、防腐劑，天然麥子味越嚼越香，這裡的披薩沒有花俏的口味，西西里酸豆、瑪格麗特等，簡單卻很好吃，價格也很親民。愛窯僅五、六、日營業，喜歡歐陸麵包的人千萬別錯過。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ioventaiwan</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市林森路 315 巷 45 號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期五至星期日: 15:00 -21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03 832 6656</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>戴記扁食</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,30 +177,6 @@
     <t>https://www.facebook.com/pages/category/Diner/%E9%B5%9D%E8%82%89%E5%85%88%E7%94%9F%E6%9E%97%E6%A3%AE%E5%BA%97-1124449164263879/</t>
   </si>
   <si>
-    <t>Oh La La 法式薄餅 · 家常菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-法國人經常把 Oh La La 掛在嘴邊，中文翻譯就是「我的老天爺啊！」這句話完美詮釋了這家小店帶來的法式驚喜。讓女孩們如癡如醉的法式甜薄餅，散發著蛋奶的溫暖香氣，軟嫩帶有 Q 彈韌感，簡單撒上白砂糖就很美味。法式蕎麥鹹薄餅以蕎麥粉製作，口感較甜薄餅彈牙，越嚼越有蕎麥的香氣，加入火腿、起司跟半熟蛋是傳統經典的吃法。法國老闆家傳料理紅酒燉牛肉是有名氣的鐵鍋料理，以帶皮的培根丁炒香了鍋氣，加入蔬菜、紅酒、牛肉慢火精燉 2 小時，軟嫩的牛肉搭上黏稠的醬汁，佐以花蓮晶透的米飯，台法混搭很配。法國人會把鹹薄餅當正餐，餐後再吃甜薄餅，配上蘋果酒最對味，來 Oh La La 試試道地法式吃法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市中山路 611 號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:00-14:30、17:30-21:00 (星期二、星期三公休)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ohlalahualien/</t>
-  </si>
-  <si>
-    <t>03 831 1713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>03 833 1906</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,45 +198,11 @@
   </si>
   <si>
     <t>https://www.facebook.com/pages/category/Food-Stand/%E5%85%AC%E6%AD%A3%E5%8C%85%E5%AD%90-175588822483275/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周家蒸餃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在公正包子店隔壁的周家蒸餃也是人氣爆棚，兩家店賣的東西差不多，分別有各自的擁護粉絲。周家蒸餃一籠10個，貪吃的人可一口一個，餃子皮手工擀製，厚薄適中，蒸好後 Q 而不濕，完整鎖住香甜的肉餡，吃時一定要沾上店家自製的蒜頭醬油，鹹鹹甜甜的醬汁很能提味。蒸餃的最佳拍檔就是酸辣湯，豆腐、木耳、豬血…滿滿的湯料，誠意十足，微酸的湯頭搭配蒸餃，一口湯一口蒸餃，不知不覺已經吃撐了肚子。肉羹湯使用不裹粉的瘦肉條，筍絲多，肉羹更多，很多當地人都會點上一碗當下午茶！周家蒸餃人潮絡繹不絕，24 小時營業，從早餐到宵夜都可以吃得到！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市公正街 4-20 號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 小時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/chouchia1975/</t>
-  </si>
-  <si>
-    <t>03 835 0006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 03 834 2933</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/aorebony/</t>
-  </si>
-  <si>
-    <t>fig/TGE-5202-HualienRestaurant-03.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0966 507 451</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -751,6 +572,50 @@
   </si>
   <si>
     <t>http://www.bian-shi.com.tw</t>
+  </si>
+  <si>
+    <t>Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1142,13 +1007,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1162,10 +1027,11 @@
     <col min="7" max="7" width="22" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="37" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="30.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:12" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -1199,631 +1065,496 @@
       <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="160">
+    <row r="2" spans="1:12" ht="144">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>34</v>
+        <v>122</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="176">
+    <row r="3" spans="1:12" ht="192">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>39</v>
+        <v>112</v>
+      </c>
+      <c r="I3" t="s">
+        <v>114</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>40</v>
+        <v>111</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="192">
+    <row r="4" spans="1:12" ht="224">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="380">
+      <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="176">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="176">
+    <row r="6" spans="1:12" ht="64">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="409.6">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="80">
+      <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="144">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="176">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="L8" s="4" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="192">
+    <row r="9" spans="1:12" ht="409.6">
       <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="335">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="160">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="176">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="144">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="160">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="160">
-      <c r="A10" s="1" t="s">
+      <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="160">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="335">
-      <c r="A12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="409.6">
-      <c r="A13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="80">
-      <c r="A14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="409.6">
-      <c r="A15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="K14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="64">
-      <c r="A16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="380">
-      <c r="A17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="224">
-      <c r="A18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="192">
-      <c r="A19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I19" t="s">
-        <v>162</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="144">
-      <c r="A20" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
+    <sortCondition descending="1" ref="A2:A14"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K10" r:id="rId1" xr:uid="{3FD5D21B-A5E3-8145-AFF9-4ED28DB7BC99}"/>
+    <hyperlink ref="K11" r:id="rId1" xr:uid="{3FD5D21B-A5E3-8145-AFF9-4ED28DB7BC99}"/>
+    <hyperlink ref="L2" r:id="rId2" location="Articla-109" xr:uid="{9498C204-402A-8844-B291-20E4E80F01E3}"/>
+    <hyperlink ref="L14" r:id="rId3" location="Articla-108" xr:uid="{651182FF-827A-5E4D-AB7B-F69E9D812241}"/>
+    <hyperlink ref="L13" r:id="rId4" display="https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html" xr:uid="{0E905670-4B98-C94E-AFA4-60665E616DC5}"/>
+    <hyperlink ref="L12" r:id="rId5" display="https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html" xr:uid="{01CBE56D-D6B4-984F-B5D7-C0C5131F3AF3}"/>
+    <hyperlink ref="L11" r:id="rId6" display="https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html" xr:uid="{3AB3CB47-8582-0148-A22F-2EFC056A6E16}"/>
+    <hyperlink ref="L10" r:id="rId7" location="Articla-105" xr:uid="{1A37A978-F883-A74B-B7D4-8D5420BFAE75}"/>
+    <hyperlink ref="L8" r:id="rId8" location="Articla-106" xr:uid="{DC97030E-42DA-1A44-BB59-7CD83929B1F2}"/>
+    <hyperlink ref="L9" r:id="rId9" location="Articla-101" xr:uid="{22328E23-EC28-6144-ADDA-E64573ACB7DF}"/>
+    <hyperlink ref="L7" r:id="rId10" location="Articla-102" xr:uid="{C448A719-0784-8944-8CCA-DDF7B0F55AC2}"/>
+    <hyperlink ref="L5" r:id="rId11" location="Articla-103" xr:uid="{8BE8E1DC-B91D-1646-8725-1A720D0E4BFD}"/>
+    <hyperlink ref="L4" r:id="rId12" location="Articla-107" xr:uid="{25CEB3F2-A6FB-494D-913A-B3E54F6D18CC}"/>
+    <hyperlink ref="L3" r:id="rId13" location="Articla-104" xr:uid="{60616660-EBDE-7B46-B6FA-CC374D768848}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/file/TGE-522-HualienRestaurant.xlsx
+++ b/file/TGE-522-HualienRestaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAB1D59-486E-574B-81AD-04B05952C283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B537DF-CD71-004B-971F-6698AB00D653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="12900" windowWidth="48720" windowHeight="20800" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="1440" yWindow="8000" windowWidth="48720" windowHeight="20800" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -578,43 +578,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Articla-109</t>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Article-109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Article-104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Article-107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Article-103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Article-102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Article-106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Article-101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Article-105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html#Article-108</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1010,10 +1010,10 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1101,7 +1101,7 @@
         <v>124</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="192">
@@ -1136,7 +1136,7 @@
         <v>116</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="224">
@@ -1171,7 +1171,7 @@
         <v>106</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="380">
@@ -1209,7 +1209,7 @@
         <v>88</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="64">
@@ -1244,7 +1244,7 @@
         <v>81</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="409.6">
@@ -1317,7 +1317,7 @@
         <v>70</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="409.6">
@@ -1355,7 +1355,7 @@
         <v>62</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="335">
@@ -1393,7 +1393,7 @@
         <v>50</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="160">
@@ -1428,7 +1428,7 @@
         <v>43</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="176">
@@ -1463,7 +1463,7 @@
         <v>37</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="144">
@@ -1498,7 +1498,7 @@
         <v>31</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="160">
@@ -1533,7 +1533,7 @@
         <v>23</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1543,18 +1543,18 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K11" r:id="rId1" xr:uid="{3FD5D21B-A5E3-8145-AFF9-4ED28DB7BC99}"/>
-    <hyperlink ref="L2" r:id="rId2" location="Articla-109" xr:uid="{9498C204-402A-8844-B291-20E4E80F01E3}"/>
-    <hyperlink ref="L14" r:id="rId3" location="Articla-108" xr:uid="{651182FF-827A-5E4D-AB7B-F69E9D812241}"/>
+    <hyperlink ref="L2" r:id="rId2" location="Article-109" xr:uid="{9498C204-402A-8844-B291-20E4E80F01E3}"/>
+    <hyperlink ref="L14" r:id="rId3" location="Article-108" xr:uid="{651182FF-827A-5E4D-AB7B-F69E9D812241}"/>
     <hyperlink ref="L13" r:id="rId4" display="https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html" xr:uid="{0E905670-4B98-C94E-AFA4-60665E616DC5}"/>
     <hyperlink ref="L12" r:id="rId5" display="https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html" xr:uid="{01CBE56D-D6B4-984F-B5D7-C0C5131F3AF3}"/>
     <hyperlink ref="L11" r:id="rId6" display="https://tcwang.github.io/TravelGuide-EastCoast/TGE-550-RestaurantSummary.html" xr:uid="{3AB3CB47-8582-0148-A22F-2EFC056A6E16}"/>
-    <hyperlink ref="L10" r:id="rId7" location="Articla-105" xr:uid="{1A37A978-F883-A74B-B7D4-8D5420BFAE75}"/>
-    <hyperlink ref="L8" r:id="rId8" location="Articla-106" xr:uid="{DC97030E-42DA-1A44-BB59-7CD83929B1F2}"/>
-    <hyperlink ref="L9" r:id="rId9" location="Articla-101" xr:uid="{22328E23-EC28-6144-ADDA-E64573ACB7DF}"/>
-    <hyperlink ref="L7" r:id="rId10" location="Articla-102" xr:uid="{C448A719-0784-8944-8CCA-DDF7B0F55AC2}"/>
-    <hyperlink ref="L5" r:id="rId11" location="Articla-103" xr:uid="{8BE8E1DC-B91D-1646-8725-1A720D0E4BFD}"/>
-    <hyperlink ref="L4" r:id="rId12" location="Articla-107" xr:uid="{25CEB3F2-A6FB-494D-913A-B3E54F6D18CC}"/>
-    <hyperlink ref="L3" r:id="rId13" location="Articla-104" xr:uid="{60616660-EBDE-7B46-B6FA-CC374D768848}"/>
+    <hyperlink ref="L10" r:id="rId7" location="Article-105" xr:uid="{1A37A978-F883-A74B-B7D4-8D5420BFAE75}"/>
+    <hyperlink ref="L8" r:id="rId8" location="Article-106" xr:uid="{DC97030E-42DA-1A44-BB59-7CD83929B1F2}"/>
+    <hyperlink ref="L9" r:id="rId9" location="Article-101" xr:uid="{22328E23-EC28-6144-ADDA-E64573ACB7DF}"/>
+    <hyperlink ref="L7" r:id="rId10" location="Article-102" xr:uid="{C448A719-0784-8944-8CCA-DDF7B0F55AC2}"/>
+    <hyperlink ref="L5" r:id="rId11" location="Article-103" xr:uid="{8BE8E1DC-B91D-1646-8725-1A720D0E4BFD}"/>
+    <hyperlink ref="L4" r:id="rId12" location="Article-107" xr:uid="{25CEB3F2-A6FB-494D-913A-B3E54F6D18CC}"/>
+    <hyperlink ref="L3" r:id="rId13" location="Article-104" xr:uid="{60616660-EBDE-7B46-B6FA-CC374D768848}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
